--- a/2_tch/static/temp/sample.xlsx
+++ b/2_tch/static/temp/sample.xlsx
@@ -424,24 +424,24 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>42 Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan</t>
+          <t>42 Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>124 Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan</t>
+          <t>124 Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2022-05-26 21:34:18.402000 Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan</t>
+          <t>2022-05-26 21:34:18.402000 Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2 Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan</t>
+          <t>2 Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan</t>
         </is>
       </c>
     </row>

--- a/2_tch/static/temp/sample.xlsx
+++ b/2_tch/static/temp/sample.xlsx
@@ -424,24 +424,24 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>42 Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan</t>
+          <t>42 Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>124 Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan</t>
+          <t>124 Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2022-05-26 21:34:18.402000 Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan</t>
+          <t>2022-05-26 21:34:18.402000 Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2 Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan</t>
+          <t>2 Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan</t>
         </is>
       </c>
     </row>

--- a/2_tch/static/temp/sample.xlsx
+++ b/2_tch/static/temp/sample.xlsx
@@ -424,24 +424,24 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>42 Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan</t>
+          <t>42 Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>124 Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan</t>
+          <t>2022-05-26 21:34:18.402000 Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2022-05-26 21:34:18.402000 Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan</t>
+          <t>124 Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2 Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan</t>
+          <t>2 Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan Bogdan</t>
         </is>
       </c>
     </row>
